--- a/Code/Results/Cases/Case_1_205/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_205/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1431163451631789</v>
+        <v>0.04349144772309899</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.004218861604151414</v>
+        <v>0.01883115997351759</v>
       </c>
       <c r="E2">
-        <v>0.03321475682317221</v>
+        <v>0.07309914496272718</v>
       </c>
       <c r="F2">
-        <v>2.478148815039575</v>
+        <v>3.621130701086102</v>
       </c>
       <c r="G2">
-        <v>0.0008262480261201639</v>
+        <v>0.002595240643110432</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4719993994954592</v>
+        <v>0.848719136981444</v>
       </c>
       <c r="J2">
-        <v>0.08011193534973771</v>
+        <v>0.1532231040505181</v>
       </c>
       <c r="K2">
-        <v>3.520446558107722</v>
+        <v>2.372091779716072</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.72007438516831</v>
+        <v>0.6127212123230592</v>
       </c>
       <c r="N2">
-        <v>1.398951694157326</v>
+        <v>2.671174786595792</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1256199198460308</v>
+        <v>0.03785547096567399</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.003676919438525772</v>
+        <v>0.01872192813357287</v>
       </c>
       <c r="E3">
-        <v>0.03124604753157811</v>
+        <v>0.07300949670209178</v>
       </c>
       <c r="F3">
-        <v>2.31568740675587</v>
+        <v>3.60153998104623</v>
       </c>
       <c r="G3">
-        <v>0.0008347864792003505</v>
+        <v>0.002600610571142101</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4729221307054168</v>
+        <v>0.8520888305691372</v>
       </c>
       <c r="J3">
-        <v>0.07645333394054532</v>
+        <v>0.153165599077326</v>
       </c>
       <c r="K3">
-        <v>3.068006216253707</v>
+        <v>2.270071448469082</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6326581856828852</v>
+        <v>0.5943551562412708</v>
       </c>
       <c r="N3">
-        <v>1.44124343205317</v>
+        <v>2.689019173921089</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1148442539725849</v>
+        <v>0.0343869474186107</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003350564455953275</v>
+        <v>0.01865813169924913</v>
       </c>
       <c r="E4">
-        <v>0.03007821075743422</v>
+        <v>0.07298061153166557</v>
       </c>
       <c r="F4">
-        <v>2.2207831561945</v>
+        <v>3.591331531968194</v>
       </c>
       <c r="G4">
-        <v>0.0008401720459203353</v>
+        <v>0.002604081324794145</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4741835662776381</v>
+        <v>0.8544607495672274</v>
       </c>
       <c r="J4">
-        <v>0.07433640770358707</v>
+        <v>0.153192703655435</v>
       </c>
       <c r="K4">
-        <v>2.795582678865316</v>
+        <v>2.208896038737947</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5800838489404967</v>
+        <v>0.5834405332797203</v>
       </c>
       <c r="N4">
-        <v>1.468977750816045</v>
+        <v>2.700725547982636</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1104442496776912</v>
+        <v>0.03297160571764834</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.00321888793775571</v>
+        <v>0.01863296198187747</v>
       </c>
       <c r="E5">
-        <v>0.02961193837942488</v>
+        <v>0.07297542873228302</v>
       </c>
       <c r="F5">
-        <v>2.183227934485444</v>
+        <v>3.587628259199036</v>
       </c>
       <c r="G5">
-        <v>0.0008424042250659903</v>
+        <v>0.002605539486467722</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4748641983196187</v>
+        <v>0.8555034485468411</v>
       </c>
       <c r="J5">
-        <v>0.07350408800453678</v>
+        <v>0.1532194367017361</v>
       </c>
       <c r="K5">
-        <v>2.685754474967752</v>
+        <v>2.184333476566422</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5589045229929468</v>
+        <v>0.5790835811395141</v>
       </c>
       <c r="N5">
-        <v>1.480706454083467</v>
+        <v>2.705684334839049</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1097130825519699</v>
+        <v>0.03273647880862285</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003197094752325214</v>
+        <v>0.01862883272085725</v>
       </c>
       <c r="E6">
-        <v>0.02953507730626015</v>
+        <v>0.07297496634447143</v>
       </c>
       <c r="F6">
-        <v>2.177056735957962</v>
+        <v>3.587040891961394</v>
       </c>
       <c r="G6">
-        <v>0.000842777186646112</v>
+        <v>0.002605784263063016</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4749870511373935</v>
+        <v>0.8556811841809271</v>
       </c>
       <c r="J6">
-        <v>0.07336765334694562</v>
+        <v>0.1532248230245621</v>
       </c>
       <c r="K6">
-        <v>2.667584676025342</v>
+        <v>2.180276996651457</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5554016499937617</v>
+        <v>0.578365592664035</v>
       </c>
       <c r="N6">
-        <v>1.482679283079491</v>
+        <v>2.706519107058526</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1147849504839797</v>
+        <v>0.03436786711371553</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003348783653340348</v>
+        <v>0.01865778889277259</v>
       </c>
       <c r="E7">
-        <v>0.03007188429704222</v>
+        <v>0.07298051494555935</v>
       </c>
       <c r="F7">
-        <v>2.220272268643896</v>
+        <v>3.591279740283809</v>
       </c>
       <c r="G7">
-        <v>0.0008402019959732268</v>
+        <v>0.002604100812369118</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4741920813507399</v>
+        <v>0.8544745036202279</v>
       </c>
       <c r="J7">
-        <v>0.07432506267949535</v>
+        <v>0.1531930006757172</v>
       </c>
       <c r="K7">
-        <v>2.794096901481339</v>
+        <v>2.208563295913933</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5797972641432736</v>
+        <v>0.5833814063793312</v>
       </c>
       <c r="N7">
-        <v>1.469134222548092</v>
+        <v>2.7007916616176</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.137090010234715</v>
+        <v>0.04154989827220845</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004030482659006296</v>
+        <v>0.01879282052084186</v>
       </c>
       <c r="E8">
-        <v>0.03252702493256976</v>
+        <v>0.0730628107778557</v>
       </c>
       <c r="F8">
-        <v>2.4210631465224</v>
+        <v>3.613997398512367</v>
       </c>
       <c r="G8">
-        <v>0.0008291634103041307</v>
+        <v>0.002597056254684299</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4721682438673618</v>
+        <v>0.8498181082881615</v>
       </c>
       <c r="J8">
-        <v>0.07882219003903757</v>
+        <v>0.1531903181336318</v>
       </c>
       <c r="K8">
-        <v>3.363225109831774</v>
+        <v>2.336610002350426</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6896853453135705</v>
+        <v>0.606313268910732</v>
       </c>
       <c r="N8">
-        <v>1.413156104744985</v>
+        <v>2.67717177349688</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1806009013195506</v>
+        <v>0.05556549742021843</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005433623346382532</v>
+        <v>0.01908339626983668</v>
       </c>
       <c r="E9">
-        <v>0.03769991351048496</v>
+        <v>0.07343139099512719</v>
       </c>
       <c r="F9">
-        <v>2.858270940854936</v>
+        <v>3.673041885308749</v>
       </c>
       <c r="G9">
-        <v>0.0008085724515990108</v>
+        <v>0.002584612475586283</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4741139364892817</v>
+        <v>0.8430929071706998</v>
       </c>
       <c r="J9">
-        <v>0.0887784400175704</v>
+        <v>0.1536807548546193</v>
       </c>
       <c r="K9">
-        <v>4.530239950312648</v>
+        <v>2.599426075254598</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9154704841964545</v>
+        <v>0.6541705389353467</v>
       </c>
       <c r="N9">
-        <v>1.318274980145006</v>
+        <v>2.636812233843045</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2124780450722312</v>
+        <v>0.06581567295077662</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.00653080910584336</v>
+        <v>0.01931239821938213</v>
       </c>
       <c r="E10">
-        <v>0.04177083862329489</v>
+        <v>0.07382813753561024</v>
       </c>
       <c r="F10">
-        <v>3.213776340408145</v>
+        <v>3.725340739528349</v>
       </c>
       <c r="G10">
-        <v>0.0007939663269959096</v>
+        <v>0.002576295998853466</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4797651131184608</v>
+        <v>0.8396226238529678</v>
       </c>
       <c r="J10">
-        <v>0.09695791643163432</v>
+        <v>0.1543442017487635</v>
       </c>
       <c r="K10">
-        <v>5.431709795611937</v>
+        <v>2.79980758306516</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.090088388212344</v>
+        <v>0.6911160955265387</v>
       </c>
       <c r="N10">
-        <v>1.258995037806528</v>
+        <v>2.610805361767632</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2269722748236234</v>
+        <v>0.07046743732998095</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.00705154097881433</v>
+        <v>0.01941991146091127</v>
       </c>
       <c r="E11">
-        <v>0.04369476169141251</v>
+        <v>0.07403591229672735</v>
       </c>
       <c r="F11">
-        <v>3.384958236125868</v>
+        <v>3.75108824080246</v>
       </c>
       <c r="G11">
-        <v>0.0007874040218178548</v>
+        <v>0.00257268992537973</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4834085262662171</v>
+        <v>0.8383641754610451</v>
       </c>
       <c r="J11">
-        <v>0.1009105349342292</v>
+        <v>0.1547120699650364</v>
       </c>
       <c r="K11">
-        <v>5.854736257277466</v>
+        <v>2.892583251735346</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.172055960097381</v>
+        <v>0.7083167799823116</v>
       </c>
       <c r="N11">
-        <v>1.234639354159242</v>
+        <v>2.599768506601762</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2324609019059949</v>
+        <v>0.07222723259461361</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.007252573592751332</v>
+        <v>0.01946110091047437</v>
       </c>
       <c r="E12">
-        <v>0.0444349170054128</v>
+        <v>0.07411850875259063</v>
       </c>
       <c r="F12">
-        <v>3.451334068411256</v>
+        <v>3.761120865394417</v>
       </c>
       <c r="G12">
-        <v>0.0007849279071497807</v>
+        <v>0.002571349714487033</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4849572651026222</v>
+        <v>0.8379337503797615</v>
       </c>
       <c r="J12">
-        <v>0.1024448031871827</v>
+        <v>0.1548608871491695</v>
       </c>
       <c r="K12">
-        <v>6.017109623642114</v>
+        <v>2.927950410464121</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.203519957826501</v>
+        <v>0.7148872562117532</v>
       </c>
       <c r="N12">
-        <v>1.22582568913576</v>
+        <v>2.595703551228411</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2312788127477887</v>
+        <v>0.07184830809843845</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.007209093583972148</v>
+        <v>0.01945220888662647</v>
       </c>
       <c r="E13">
-        <v>0.04427497352315513</v>
+        <v>0.07410054605808369</v>
       </c>
       <c r="F13">
-        <v>3.436966435526841</v>
+        <v>3.758947570849188</v>
       </c>
       <c r="G13">
-        <v>0.0007854608379605303</v>
+        <v>0.002571637228702454</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4846159426016854</v>
+        <v>0.838024397580817</v>
       </c>
       <c r="J13">
-        <v>0.1021126311377643</v>
+        <v>0.1548284133662321</v>
       </c>
       <c r="K13">
-        <v>5.982036969011062</v>
+        <v>2.920322976258149</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.196723687715334</v>
+        <v>0.7134696488691787</v>
       </c>
       <c r="N13">
-        <v>1.227705079018463</v>
+        <v>2.596573916277492</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2274238221574478</v>
+        <v>0.07061225210956934</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.007067998356717453</v>
+        <v>0.01942329061098036</v>
       </c>
       <c r="E14">
-        <v>0.04375541438029273</v>
+        <v>0.07404262910606363</v>
       </c>
       <c r="F14">
-        <v>3.390386698001208</v>
+        <v>3.751907959716277</v>
       </c>
       <c r="G14">
-        <v>0.0007872001503131438</v>
+        <v>0.002572579158431898</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4835324625918034</v>
+        <v>0.8383278393274765</v>
       </c>
       <c r="J14">
-        <v>0.1010359827865841</v>
+        <v>0.1547241224992746</v>
       </c>
       <c r="K14">
-        <v>5.868049078490969</v>
+        <v>2.895488207783899</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.174635636663226</v>
+        <v>0.7088561939065983</v>
       </c>
       <c r="N14">
-        <v>1.233905835892642</v>
+        <v>2.599431784460307</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2250625559496342</v>
+        <v>0.06985490332174038</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.006982097951018673</v>
+        <v>0.01940563928596362</v>
       </c>
       <c r="E15">
-        <v>0.04343872071742005</v>
+        <v>0.07400766313263674</v>
       </c>
       <c r="F15">
-        <v>3.362063654041464</v>
+        <v>3.747632836054692</v>
       </c>
       <c r="G15">
-        <v>0.000788266593713448</v>
+        <v>0.002573159412678105</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4828912858745937</v>
+        <v>0.8385197149328221</v>
       </c>
       <c r="J15">
-        <v>0.1003815208164767</v>
+        <v>0.1546614806852844</v>
       </c>
       <c r="K15">
-        <v>5.798522688510388</v>
+        <v>2.88030685986962</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.161163299905141</v>
+        <v>0.7060377451496578</v>
       </c>
       <c r="N15">
-        <v>1.237758361721106</v>
+        <v>2.601197227038583</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2115307557401707</v>
+        <v>0.06551143471712351</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.006497272869861348</v>
+        <v>0.01930543884944314</v>
       </c>
       <c r="E16">
-        <v>0.04164665859718042</v>
+        <v>0.0738151074766602</v>
       </c>
       <c r="F16">
-        <v>3.202795465960151</v>
+        <v>3.723697556778092</v>
       </c>
       <c r="G16">
-        <v>0.0007943965999931413</v>
+        <v>0.002576535216621858</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4795498187137284</v>
+        <v>0.839711316265948</v>
       </c>
       <c r="J16">
-        <v>0.0967046116021919</v>
+        <v>0.154321491207412</v>
       </c>
       <c r="K16">
-        <v>5.404350972706766</v>
+        <v>2.793777258395608</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.084787571866471</v>
+        <v>0.6899999432702586</v>
       </c>
       <c r="N16">
-        <v>1.260642074238547</v>
+        <v>2.611542646246946</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2032283412929416</v>
+        <v>0.06284392241911974</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.006205867599494042</v>
+        <v>0.01924482167270902</v>
       </c>
       <c r="E17">
-        <v>0.04056657872807001</v>
+        <v>0.07370396537479351</v>
       </c>
       <c r="F17">
-        <v>3.107641992796431</v>
+        <v>3.70951603309922</v>
       </c>
       <c r="G17">
-        <v>0.0007981762234568121</v>
+        <v>0.002578651430758638</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.477784671731861</v>
+        <v>0.8405243908719982</v>
       </c>
       <c r="J17">
-        <v>0.09451110870848112</v>
+        <v>0.154129848516618</v>
       </c>
       <c r="K17">
-        <v>5.16606999921413</v>
+        <v>2.741110704199002</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.038622870333747</v>
+        <v>0.6802623850939824</v>
       </c>
       <c r="N17">
-        <v>1.27537198281621</v>
+        <v>2.618092758979984</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1984523059104362</v>
+        <v>0.06130860372205404</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.006040242655183548</v>
+        <v>0.01921027076808102</v>
       </c>
       <c r="E18">
-        <v>0.03995204283858911</v>
+        <v>0.07364260876507878</v>
       </c>
       <c r="F18">
-        <v>3.053789816362951</v>
+        <v>3.701543272760063</v>
       </c>
       <c r="G18">
-        <v>0.000800358084696251</v>
+        <v>0.002579885302268388</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4768693871925933</v>
+        <v>0.8410221839841299</v>
       </c>
       <c r="J18">
-        <v>0.09327099699533647</v>
+        <v>0.1540258380035269</v>
       </c>
       <c r="K18">
-        <v>5.030213815490868</v>
+        <v>2.710970765381944</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.012304525183829</v>
+        <v>0.6746986627162812</v>
       </c>
       <c r="N18">
-        <v>1.284087736911516</v>
+        <v>2.62193490772421</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1968350730911368</v>
+        <v>0.06078859725914754</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.005984485285212671</v>
+        <v>0.0191986265556352</v>
       </c>
       <c r="E19">
-        <v>0.03974508624360773</v>
+        <v>0.07362227601414162</v>
       </c>
       <c r="F19">
-        <v>3.03570165461079</v>
+        <v>3.698875410398017</v>
       </c>
       <c r="G19">
-        <v>0.0008010982690753506</v>
+        <v>0.002580305939365616</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4765762361501089</v>
+        <v>0.841195901398649</v>
       </c>
       <c r="J19">
-        <v>0.0928546959810177</v>
+        <v>0.1539916892494801</v>
       </c>
       <c r="K19">
-        <v>4.984411675516014</v>
+        <v>2.70079202929918</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.003432123826101</v>
+        <v>0.6728212386508829</v>
       </c>
       <c r="N19">
-        <v>1.287079601468236</v>
+        <v>2.623248613092144</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2041122138579965</v>
+        <v>0.06312799185540996</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.006236677978730398</v>
+        <v>0.01925124195305727</v>
       </c>
       <c r="E20">
-        <v>0.04068085334924554</v>
+        <v>0.07371553077820892</v>
       </c>
       <c r="F20">
-        <v>3.117679100430877</v>
+        <v>3.711006620170025</v>
       </c>
       <c r="G20">
-        <v>0.000797773076090907</v>
+        <v>0.002578424430793378</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4779621252077462</v>
+        <v>0.8404347183713625</v>
       </c>
       <c r="J20">
-        <v>0.09474235365561867</v>
+        <v>0.1541496056444629</v>
       </c>
       <c r="K20">
-        <v>5.191309366033181</v>
+        <v>2.746701355005257</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.043512512456225</v>
+        <v>0.6812951267143319</v>
       </c>
       <c r="N20">
-        <v>1.273778526223566</v>
+        <v>2.617387755173567</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2285561189208636</v>
+        <v>0.07097535963261237</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.007109330638179756</v>
+        <v>0.01943177170489285</v>
       </c>
       <c r="E21">
-        <v>0.04390769575184095</v>
+        <v>0.07405953448413172</v>
       </c>
       <c r="F21">
-        <v>3.404024487345765</v>
+        <v>3.753967984134732</v>
       </c>
       <c r="G21">
-        <v>0.0007866890559355728</v>
+        <v>0.002572301804346529</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4838459918700337</v>
+        <v>0.8382374587669474</v>
       </c>
       <c r="J21">
-        <v>0.1013511669109874</v>
+        <v>0.1547544969494439</v>
       </c>
       <c r="K21">
-        <v>5.901468079376627</v>
+        <v>2.902776387285371</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.181111386173512</v>
+        <v>0.7102097294241076</v>
       </c>
       <c r="N21">
-        <v>1.232073123109501</v>
+        <v>2.59858925028783</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2445319920452675</v>
+        <v>0.07609394136984804</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.007702500250887923</v>
+        <v>0.01955253435504289</v>
       </c>
       <c r="E22">
-        <v>0.04608497663697442</v>
+        <v>0.07430718657328583</v>
       </c>
       <c r="F22">
-        <v>3.600328245885692</v>
+        <v>3.783693560618076</v>
       </c>
       <c r="G22">
-        <v>0.0007794951773316983</v>
+        <v>0.002568447897539012</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4886850475720763</v>
+        <v>0.8370702940706209</v>
       </c>
       <c r="J22">
-        <v>0.1058913111292838</v>
+        <v>0.1552052870248204</v>
       </c>
       <c r="K22">
-        <v>6.378500407584568</v>
+        <v>3.006151275634295</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.273549519723687</v>
+        <v>0.729439188467623</v>
       </c>
       <c r="N22">
-        <v>1.207221020096384</v>
+        <v>2.586970664445246</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2360049960278161</v>
+        <v>0.07336302798947258</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.007383545760808019</v>
+        <v>0.0194878281806794</v>
       </c>
       <c r="E23">
-        <v>0.04491621230712006</v>
+        <v>0.07417292400892173</v>
       </c>
       <c r="F23">
-        <v>3.49464853596271</v>
+        <v>3.767677258887346</v>
       </c>
       <c r="G23">
-        <v>0.0007833311601340571</v>
+        <v>0.002570491342618653</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4860060640193566</v>
+        <v>0.8376686040505987</v>
       </c>
       <c r="J23">
-        <v>0.1034464149696959</v>
+        <v>0.1549596127068398</v>
       </c>
       <c r="K23">
-        <v>6.122600886300688</v>
+        <v>2.950852077985815</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.223961819057919</v>
+        <v>0.7191455767461292</v>
       </c>
       <c r="N23">
-        <v>1.220252637981844</v>
+        <v>2.593110556483467</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.203712624072196</v>
+        <v>0.06299956944269525</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.006222742717353569</v>
+        <v>0.01924833841369278</v>
       </c>
       <c r="E24">
-        <v>0.04062916989961884</v>
+        <v>0.07371029414577812</v>
       </c>
       <c r="F24">
-        <v>3.113138681941194</v>
+        <v>3.710332163986664</v>
       </c>
       <c r="G24">
-        <v>0.000797955311064784</v>
+        <v>0.00257852700375139</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4778815896001802</v>
+        <v>0.8404751647947108</v>
       </c>
       <c r="J24">
-        <v>0.09463774283063486</v>
+        <v>0.1541406542378994</v>
       </c>
       <c r="K24">
-        <v>5.179895137601477</v>
+        <v>2.744173389698233</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.041301217122928</v>
+        <v>0.6808281166983221</v>
       </c>
       <c r="N24">
-        <v>1.274498160064894</v>
+        <v>2.617706249444041</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1688497167199614</v>
+        <v>0.05178178611335227</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.005044522738018031</v>
+        <v>0.01900204966551655</v>
       </c>
       <c r="E25">
-        <v>0.03625711540060372</v>
+        <v>0.0733095367225296</v>
       </c>
       <c r="F25">
-        <v>2.734590462387885</v>
+        <v>3.65550856867165</v>
       </c>
       <c r="G25">
-        <v>0.0008140416078152857</v>
+        <v>0.002587833109829111</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4728945717997775</v>
+        <v>0.8446542706177667</v>
       </c>
       <c r="J25">
-        <v>0.08594669097335128</v>
+        <v>0.1534949167924751</v>
       </c>
       <c r="K25">
-        <v>4.207823817007977</v>
+        <v>2.52705787989396</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8530504765250768</v>
+        <v>0.6409122264747467</v>
       </c>
       <c r="N25">
-        <v>1.342218378596627</v>
+        <v>2.647091338075796</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_205/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_205/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04349144772309899</v>
+        <v>0.1431163451633211</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01883115997351759</v>
+        <v>0.004218861604147861</v>
       </c>
       <c r="E2">
-        <v>0.07309914496272718</v>
+        <v>0.03321475682311537</v>
       </c>
       <c r="F2">
-        <v>3.621130701086102</v>
+        <v>2.478148815039589</v>
       </c>
       <c r="G2">
-        <v>0.002595240643110432</v>
+        <v>0.0008262480261197002</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.848719136981444</v>
+        <v>0.4719993994954663</v>
       </c>
       <c r="J2">
-        <v>0.1532231040505181</v>
+        <v>0.0801119353497306</v>
       </c>
       <c r="K2">
-        <v>2.372091779716072</v>
+        <v>3.520446558107665</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6127212123230592</v>
+        <v>0.7200743851683029</v>
       </c>
       <c r="N2">
-        <v>2.671174786595792</v>
+        <v>1.398951694157368</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03785547096567399</v>
+        <v>0.1256199198460664</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01872192813357287</v>
+        <v>0.003676919438406756</v>
       </c>
       <c r="E3">
-        <v>0.07300949670209178</v>
+        <v>0.03124604753156923</v>
       </c>
       <c r="F3">
-        <v>3.60153998104623</v>
+        <v>2.31568740675587</v>
       </c>
       <c r="G3">
-        <v>0.002600610571142101</v>
+        <v>0.0008347864791502513</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8520888305691372</v>
+        <v>0.4729221307054203</v>
       </c>
       <c r="J3">
-        <v>0.153165599077326</v>
+        <v>0.07645333394060927</v>
       </c>
       <c r="K3">
-        <v>2.270071448469082</v>
+        <v>3.068006216253764</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5943551562412708</v>
+        <v>0.6326581856828852</v>
       </c>
       <c r="N3">
-        <v>2.689019173921089</v>
+        <v>1.44124343205317</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0343869474186107</v>
+        <v>0.1148442539727412</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01865813169924913</v>
+        <v>0.003350564456066962</v>
       </c>
       <c r="E4">
-        <v>0.07298061153166557</v>
+        <v>0.0300782107574733</v>
       </c>
       <c r="F4">
-        <v>3.591331531968194</v>
+        <v>2.2207831561945</v>
       </c>
       <c r="G4">
-        <v>0.002604081324794145</v>
+        <v>0.0008401720459500018</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8544607495672274</v>
+        <v>0.4741835662776239</v>
       </c>
       <c r="J4">
-        <v>0.153192703655435</v>
+        <v>0.07433640770363681</v>
       </c>
       <c r="K4">
-        <v>2.208896038737947</v>
+        <v>2.79558267886523</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5834405332797203</v>
+        <v>0.5800838489405038</v>
       </c>
       <c r="N4">
-        <v>2.700725547982636</v>
+        <v>1.468977750816045</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03297160571764834</v>
+        <v>0.110444249677883</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01863296198187747</v>
+        <v>0.003218887938055914</v>
       </c>
       <c r="E5">
-        <v>0.07297542873228302</v>
+        <v>0.02961193837943732</v>
       </c>
       <c r="F5">
-        <v>3.587628259199036</v>
+        <v>2.183227934485444</v>
       </c>
       <c r="G5">
-        <v>0.002605539486467722</v>
+        <v>0.0008424042251585386</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8555034485468411</v>
+        <v>0.474864198319608</v>
       </c>
       <c r="J5">
-        <v>0.1532194367017361</v>
+        <v>0.07350408800457586</v>
       </c>
       <c r="K5">
-        <v>2.184333476566422</v>
+        <v>2.685754474967837</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5790835811395141</v>
+        <v>0.5589045229929539</v>
       </c>
       <c r="N5">
-        <v>2.705684334839049</v>
+        <v>1.480706454083411</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03273647880862285</v>
+        <v>0.109713082551977</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01862883272085725</v>
+        <v>0.003197094752231067</v>
       </c>
       <c r="E6">
-        <v>0.07297496634447143</v>
+        <v>0.02953507730626015</v>
       </c>
       <c r="F6">
-        <v>3.587040891961394</v>
+        <v>2.17705673595799</v>
       </c>
       <c r="G6">
-        <v>0.002605784263063016</v>
+        <v>0.0008427771866758027</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8556811841809271</v>
+        <v>0.4749870511373757</v>
       </c>
       <c r="J6">
-        <v>0.1532248230245621</v>
+        <v>0.07336765334701312</v>
       </c>
       <c r="K6">
-        <v>2.180276996651457</v>
+        <v>2.667584676025342</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.578365592664035</v>
+        <v>0.5554016499937546</v>
       </c>
       <c r="N6">
-        <v>2.706519107058526</v>
+        <v>1.482679283079449</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03436786711371553</v>
+        <v>0.1147849504841219</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01865778889277259</v>
+        <v>0.003348783653546406</v>
       </c>
       <c r="E7">
-        <v>0.07298051494555935</v>
+        <v>0.03007188429706531</v>
       </c>
       <c r="F7">
-        <v>3.591279740283809</v>
+        <v>2.220272268643882</v>
       </c>
       <c r="G7">
-        <v>0.002604100812369118</v>
+        <v>0.0008402019959721669</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8544745036202279</v>
+        <v>0.4741920813507505</v>
       </c>
       <c r="J7">
-        <v>0.1531930006757172</v>
+        <v>0.07432506267948114</v>
       </c>
       <c r="K7">
-        <v>2.208563295913933</v>
+        <v>2.794096901481311</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5833814063793312</v>
+        <v>0.5797972641432594</v>
       </c>
       <c r="N7">
-        <v>2.7007916616176</v>
+        <v>1.469134222548007</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04154989827220845</v>
+        <v>0.137090010234644</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01879282052084186</v>
+        <v>0.004030482658897938</v>
       </c>
       <c r="E8">
-        <v>0.0730628107778557</v>
+        <v>0.03252702493259285</v>
       </c>
       <c r="F8">
-        <v>3.613997398512367</v>
+        <v>2.4210631465224</v>
       </c>
       <c r="G8">
-        <v>0.002597056254684299</v>
+        <v>0.0008291634102006102</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8498181082881615</v>
+        <v>0.4721682438673547</v>
       </c>
       <c r="J8">
-        <v>0.1531903181336318</v>
+        <v>0.07882219003909441</v>
       </c>
       <c r="K8">
-        <v>2.336610002350426</v>
+        <v>3.363225109831717</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.606313268910732</v>
+        <v>0.6896853453135847</v>
       </c>
       <c r="N8">
-        <v>2.67717177349688</v>
+        <v>1.413156104745042</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05556549742021843</v>
+        <v>0.1806009013196643</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01908339626983668</v>
+        <v>0.005433623346384309</v>
       </c>
       <c r="E9">
-        <v>0.07343139099512719</v>
+        <v>0.03769991351048496</v>
       </c>
       <c r="F9">
-        <v>3.673041885308749</v>
+        <v>2.858270940854965</v>
       </c>
       <c r="G9">
-        <v>0.002584612475586283</v>
+        <v>0.0008085724516576406</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8430929071706998</v>
+        <v>0.4741139364892817</v>
       </c>
       <c r="J9">
-        <v>0.1536807548546193</v>
+        <v>0.08877844001770541</v>
       </c>
       <c r="K9">
-        <v>2.599426075254598</v>
+        <v>4.530239950312648</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6541705389353467</v>
+        <v>0.9154704841964474</v>
       </c>
       <c r="N9">
-        <v>2.636812233843045</v>
+        <v>1.31827498014502</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06581567295077662</v>
+        <v>0.2124780450721175</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01931239821938213</v>
+        <v>0.006530809105846913</v>
       </c>
       <c r="E10">
-        <v>0.07382813753561024</v>
+        <v>0.04177083862329667</v>
       </c>
       <c r="F10">
-        <v>3.725340739528349</v>
+        <v>3.213776340408089</v>
       </c>
       <c r="G10">
-        <v>0.002576295998853466</v>
+        <v>0.0007939663270551753</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8396226238529678</v>
+        <v>0.4797651131184537</v>
       </c>
       <c r="J10">
-        <v>0.1543442017487635</v>
+        <v>0.09695791643166274</v>
       </c>
       <c r="K10">
-        <v>2.79980758306516</v>
+        <v>5.431709795611823</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6911160955265387</v>
+        <v>1.090088388212344</v>
       </c>
       <c r="N10">
-        <v>2.610805361767632</v>
+        <v>1.258995037806528</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.07046743732998095</v>
+        <v>0.2269722748235097</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01941991146091127</v>
+        <v>0.007051540978807225</v>
       </c>
       <c r="E11">
-        <v>0.07403591229672735</v>
+        <v>0.04369476169138409</v>
       </c>
       <c r="F11">
-        <v>3.75108824080246</v>
+        <v>3.384958236125925</v>
       </c>
       <c r="G11">
-        <v>0.00257268992537973</v>
+        <v>0.0007874040217026974</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8383641754610451</v>
+        <v>0.4834085262662313</v>
       </c>
       <c r="J11">
-        <v>0.1547120699650364</v>
+        <v>0.1009105349341652</v>
       </c>
       <c r="K11">
-        <v>2.892583251735346</v>
+        <v>5.854736257277466</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7083167799823116</v>
+        <v>1.172055960097381</v>
       </c>
       <c r="N11">
-        <v>2.599768506601762</v>
+        <v>1.234639354159256</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.07222723259461361</v>
+        <v>0.2324609019061086</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01946110091047437</v>
+        <v>0.007252573592866796</v>
       </c>
       <c r="E12">
-        <v>0.07411850875259063</v>
+        <v>0.04443491700537727</v>
       </c>
       <c r="F12">
-        <v>3.761120865394417</v>
+        <v>3.451334068411256</v>
       </c>
       <c r="G12">
-        <v>0.002571349714487033</v>
+        <v>0.0007849279070921268</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8379337503797615</v>
+        <v>0.4849572651026008</v>
       </c>
       <c r="J12">
-        <v>0.1548608871491695</v>
+        <v>0.1024448031872396</v>
       </c>
       <c r="K12">
-        <v>2.927950410464121</v>
+        <v>6.017109623642057</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7148872562117532</v>
+        <v>1.203519957826515</v>
       </c>
       <c r="N12">
-        <v>2.595703551228411</v>
+        <v>1.225825689135704</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07184830809843845</v>
+        <v>0.2312788127477887</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01945220888662647</v>
+        <v>0.007209093584233273</v>
       </c>
       <c r="E13">
-        <v>0.07410054605808369</v>
+        <v>0.04427497352312315</v>
       </c>
       <c r="F13">
-        <v>3.758947570849188</v>
+        <v>3.436966435526841</v>
       </c>
       <c r="G13">
-        <v>0.002571637228702454</v>
+        <v>0.0007854608379606047</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.838024397580817</v>
+        <v>0.4846159426017067</v>
       </c>
       <c r="J13">
-        <v>0.1548284133662321</v>
+        <v>0.1021126311377643</v>
       </c>
       <c r="K13">
-        <v>2.920322976258149</v>
+        <v>5.982036969011119</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7134696488691787</v>
+        <v>1.19672368771532</v>
       </c>
       <c r="N13">
-        <v>2.596573916277492</v>
+        <v>1.227705079018477</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.07061225210956934</v>
+        <v>0.2274238221575757</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01942329061098036</v>
+        <v>0.007067998356584226</v>
       </c>
       <c r="E14">
-        <v>0.07404262910606363</v>
+        <v>0.04375541438028741</v>
       </c>
       <c r="F14">
-        <v>3.751907959716277</v>
+        <v>3.390386698001208</v>
       </c>
       <c r="G14">
-        <v>0.002572579158431898</v>
+        <v>0.0007872001501978925</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8383278393274765</v>
+        <v>0.4835324625918318</v>
       </c>
       <c r="J14">
-        <v>0.1547241224992746</v>
+        <v>0.1010359827864917</v>
       </c>
       <c r="K14">
-        <v>2.895488207783899</v>
+        <v>5.86804907849114</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7088561939065983</v>
+        <v>1.174635636663226</v>
       </c>
       <c r="N14">
-        <v>2.599431784460307</v>
+        <v>1.233905835892728</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.06985490332174038</v>
+        <v>0.2250625559496626</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01940563928596362</v>
+        <v>0.006982097950997357</v>
       </c>
       <c r="E15">
-        <v>0.07400766313263674</v>
+        <v>0.0434387207174467</v>
       </c>
       <c r="F15">
-        <v>3.747632836054692</v>
+        <v>3.362063654041464</v>
       </c>
       <c r="G15">
-        <v>0.002573159412678105</v>
+        <v>0.0007882665938906732</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8385197149328221</v>
+        <v>0.4828912858745724</v>
       </c>
       <c r="J15">
-        <v>0.1546614806852844</v>
+        <v>0.1003815208164553</v>
       </c>
       <c r="K15">
-        <v>2.88030685986962</v>
+        <v>5.798522688510388</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7060377451496578</v>
+        <v>1.161163299905169</v>
       </c>
       <c r="N15">
-        <v>2.601197227038583</v>
+        <v>1.237758361721106</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.06551143471712351</v>
+        <v>0.2115307557401849</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01930543884944314</v>
+        <v>0.006497272869856019</v>
       </c>
       <c r="E16">
-        <v>0.0738151074766602</v>
+        <v>0.04164665859718042</v>
       </c>
       <c r="F16">
-        <v>3.723697556778092</v>
+        <v>3.202795465960122</v>
       </c>
       <c r="G16">
-        <v>0.002576535216621858</v>
+        <v>0.0007943965999355047</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.839711316265948</v>
+        <v>0.4795498187137142</v>
       </c>
       <c r="J16">
-        <v>0.154321491207412</v>
+        <v>0.09670461160214217</v>
       </c>
       <c r="K16">
-        <v>2.793777258395608</v>
+        <v>5.404350972706652</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6899999432702586</v>
+        <v>1.084787571866464</v>
       </c>
       <c r="N16">
-        <v>2.611542646246946</v>
+        <v>1.260642074238575</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.06284392241911974</v>
+        <v>0.203228341292828</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01924482167270902</v>
+        <v>0.006205867599494042</v>
       </c>
       <c r="E17">
-        <v>0.07370396537479351</v>
+        <v>0.04056657872807179</v>
       </c>
       <c r="F17">
-        <v>3.70951603309922</v>
+        <v>3.107641992796431</v>
       </c>
       <c r="G17">
-        <v>0.002578651430758638</v>
+        <v>0.0007981762233924935</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8405243908719982</v>
+        <v>0.4777846717318539</v>
       </c>
       <c r="J17">
-        <v>0.154129848516618</v>
+        <v>0.09451110870849533</v>
       </c>
       <c r="K17">
-        <v>2.741110704199002</v>
+        <v>5.16606999921413</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6802623850939824</v>
+        <v>1.038622870333739</v>
       </c>
       <c r="N17">
-        <v>2.618092758979984</v>
+        <v>1.275371982816196</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.06130860372205404</v>
+        <v>0.1984523059105925</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01921027076808102</v>
+        <v>0.006040242655302563</v>
       </c>
       <c r="E18">
-        <v>0.07364260876507878</v>
+        <v>0.03995204283858733</v>
       </c>
       <c r="F18">
-        <v>3.701543272760063</v>
+        <v>3.053789816362951</v>
       </c>
       <c r="G18">
-        <v>0.002579885302268388</v>
+        <v>0.0008003580847558289</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8410221839841299</v>
+        <v>0.4768693871926075</v>
       </c>
       <c r="J18">
-        <v>0.1540258380035269</v>
+        <v>0.09327099699544306</v>
       </c>
       <c r="K18">
-        <v>2.710970765381944</v>
+        <v>5.030213815490811</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6746986627162812</v>
+        <v>1.012304525183843</v>
       </c>
       <c r="N18">
-        <v>2.62193490772421</v>
+        <v>1.284087736911502</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.06078859725914754</v>
+        <v>0.1968350730912647</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0191986265556352</v>
+        <v>0.005984485285340568</v>
       </c>
       <c r="E19">
-        <v>0.07362227601414162</v>
+        <v>0.03974508624361128</v>
       </c>
       <c r="F19">
-        <v>3.698875410398017</v>
+        <v>3.035701654610762</v>
       </c>
       <c r="G19">
-        <v>0.002580305939365616</v>
+        <v>0.000801098269019583</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.841195901398649</v>
+        <v>0.4765762361500876</v>
       </c>
       <c r="J19">
-        <v>0.1539916892494801</v>
+        <v>0.0928546959810177</v>
       </c>
       <c r="K19">
-        <v>2.70079202929918</v>
+        <v>4.984411675516014</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6728212386508829</v>
+        <v>1.003432123826123</v>
       </c>
       <c r="N19">
-        <v>2.623248613092144</v>
+        <v>1.287079601468193</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.06312799185540996</v>
+        <v>0.2041122138581954</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01925124195305727</v>
+        <v>0.006236677978728622</v>
       </c>
       <c r="E20">
-        <v>0.07371553077820892</v>
+        <v>0.04068085334924731</v>
       </c>
       <c r="F20">
-        <v>3.711006620170025</v>
+        <v>3.117679100430848</v>
       </c>
       <c r="G20">
-        <v>0.002578424430793378</v>
+        <v>0.0007977730761514233</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8404347183713625</v>
+        <v>0.4779621252077391</v>
       </c>
       <c r="J20">
-        <v>0.1541496056444629</v>
+        <v>0.09474235365561157</v>
       </c>
       <c r="K20">
-        <v>2.746701355005257</v>
+        <v>5.191309366033295</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6812951267143319</v>
+        <v>1.043512512456225</v>
       </c>
       <c r="N20">
-        <v>2.617387755173567</v>
+        <v>1.273778526223566</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.07097535963261237</v>
+        <v>0.2285561189206931</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01943177170489285</v>
+        <v>0.00710933063840713</v>
       </c>
       <c r="E21">
-        <v>0.07405953448413172</v>
+        <v>0.0439076957518445</v>
       </c>
       <c r="F21">
-        <v>3.753967984134732</v>
+        <v>3.404024487345765</v>
       </c>
       <c r="G21">
-        <v>0.002572301804346529</v>
+        <v>0.0007866890559284126</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8382374587669474</v>
+        <v>0.4838459918700195</v>
       </c>
       <c r="J21">
-        <v>0.1547544969494439</v>
+        <v>0.1013511669109164</v>
       </c>
       <c r="K21">
-        <v>2.902776387285371</v>
+        <v>5.901468079376627</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7102097294241076</v>
+        <v>1.181111386173541</v>
       </c>
       <c r="N21">
-        <v>2.59858925028783</v>
+        <v>1.232073123109515</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.07609394136984804</v>
+        <v>0.2445319920452249</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01955253435504289</v>
+        <v>0.007702500251109967</v>
       </c>
       <c r="E22">
-        <v>0.07430718657328583</v>
+        <v>0.04608497663697442</v>
       </c>
       <c r="F22">
-        <v>3.783693560618076</v>
+        <v>3.60032824588572</v>
       </c>
       <c r="G22">
-        <v>0.002568447897539012</v>
+        <v>0.0007794951773882491</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8370702940706209</v>
+        <v>0.4886850475720905</v>
       </c>
       <c r="J22">
-        <v>0.1552052870248204</v>
+        <v>0.1058913111294046</v>
       </c>
       <c r="K22">
-        <v>3.006151275634295</v>
+        <v>6.378500407584681</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.729439188467623</v>
+        <v>1.273549519723687</v>
       </c>
       <c r="N22">
-        <v>2.586970664445246</v>
+        <v>1.207221020096398</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.07336302798947258</v>
+        <v>0.2360049960277593</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0194878281806794</v>
+        <v>0.007383545760800914</v>
       </c>
       <c r="E23">
-        <v>0.07417292400892173</v>
+        <v>0.04491621230715204</v>
       </c>
       <c r="F23">
-        <v>3.767677258887346</v>
+        <v>3.494648535962682</v>
       </c>
       <c r="G23">
-        <v>0.002570491342618653</v>
+        <v>0.0007833311601323399</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8376686040505987</v>
+        <v>0.4860060640193495</v>
       </c>
       <c r="J23">
-        <v>0.1549596127068398</v>
+        <v>0.1034464149696674</v>
       </c>
       <c r="K23">
-        <v>2.950852077985815</v>
+        <v>6.122600886300688</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7191455767461292</v>
+        <v>1.223961819057934</v>
       </c>
       <c r="N23">
-        <v>2.593110556483467</v>
+        <v>1.220252637981829</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.06299956944269525</v>
+        <v>0.2037126240722102</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01924833841369278</v>
+        <v>0.006222742717472585</v>
       </c>
       <c r="E24">
-        <v>0.07371029414577812</v>
+        <v>0.04062916989961707</v>
       </c>
       <c r="F24">
-        <v>3.710332163986664</v>
+        <v>3.113138681941194</v>
       </c>
       <c r="G24">
-        <v>0.00257852700375139</v>
+        <v>0.0007979553111224404</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8404751647947108</v>
+        <v>0.4778815896001873</v>
       </c>
       <c r="J24">
-        <v>0.1541406542378994</v>
+        <v>0.09463774283062776</v>
       </c>
       <c r="K24">
-        <v>2.744173389698233</v>
+        <v>5.179895137601477</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6808281166983221</v>
+        <v>1.041301217122928</v>
       </c>
       <c r="N24">
-        <v>2.617706249444041</v>
+        <v>1.274498160064894</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.05178178611335227</v>
+        <v>0.1688497167199756</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01900204966551655</v>
+        <v>0.005044522738014479</v>
       </c>
       <c r="E25">
-        <v>0.0733095367225296</v>
+        <v>0.03625711540063037</v>
       </c>
       <c r="F25">
-        <v>3.65550856867165</v>
+        <v>2.734590462387899</v>
       </c>
       <c r="G25">
-        <v>0.002587833109829111</v>
+        <v>0.0008140416078145085</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8446542706177667</v>
+        <v>0.4728945717997632</v>
       </c>
       <c r="J25">
-        <v>0.1534949167924751</v>
+        <v>0.08594669097340812</v>
       </c>
       <c r="K25">
-        <v>2.52705787989396</v>
+        <v>4.207823817007863</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6409122264747467</v>
+        <v>0.8530504765250768</v>
       </c>
       <c r="N25">
-        <v>2.647091338075796</v>
+        <v>1.342218378596613</v>
       </c>
       <c r="O25">
         <v>0</v>
